--- a/Source Files/Input01.xlsx
+++ b/Source Files/Input01.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anderson.tavares\Documents\GitHub\SQL-Server-Integration-Service-SSIS-An-Introduction\Source Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="14130" windowHeight="13808"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="14130" windowHeight="13815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,12 +242,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -284,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,20 +542,20 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.06640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,7 +584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -605,7 +613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -634,7 +642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -663,7 +671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -692,7 +700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -721,7 +729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -750,7 +758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18</v>
       </c>
@@ -779,7 +787,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>19</v>
       </c>
@@ -819,7 +827,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -831,7 +839,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
